--- a/cluster2.xlsx
+++ b/cluster2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>pengeluaran_ewallet_sebulan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>tingkat_konsumerisme</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cluster</t>
         </is>
@@ -529,10 +534,15 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -580,10 +590,15 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -631,10 +646,15 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -682,10 +702,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -733,10 +758,15 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -784,10 +814,15 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -835,10 +870,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -886,10 +926,15 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -898,11 +943,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -917,7 +962,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -937,10 +982,15 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -949,11 +999,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -978,7 +1028,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>GoPay</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -988,10 +1038,15 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1000,11 +1055,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1019,7 +1074,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1039,10 +1094,15 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1051,49 +1111,54 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>46 - 55 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wirausaha</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ovo</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Grab</t>
+          <t>Gojek</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1102,11 +1167,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1116,17 +1181,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wirausaha</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1141,10 +1206,15 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1153,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1167,22 +1237,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>Wirausaha</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>&gt;Rp20.000.000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1192,10 +1262,15 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
+          <t>&gt;Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1204,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1213,12 +1288,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&gt; 55 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Wirausaha</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1228,7 +1303,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1243,10 +1318,15 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1255,31 +1335,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46 - 55 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pegawai Negeri</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1289,15 +1369,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1306,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1325,7 +1410,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1345,10 +1430,15 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1357,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1366,40 +1456,45 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>36 - 45 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Wirausaha</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ovo</t>
+          <t>GoPay</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Grab</t>
+          <t>Gojek</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1408,21 +1503,21 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>46 - 55 tahun</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1442,15 +1537,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1459,36 +1559,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>&gt; 55 tahun</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>&gt;Rp20.000.000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>&gt;Rp20.000.000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ShopeePay</t>
+          <t>GoPay</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1498,10 +1598,15 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1510,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1519,12 +1624,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>46 - 55 tahun</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Pegawai Negeri</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1534,7 +1639,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>&gt;Rp20.000.000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1544,15 +1649,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Grab</t>
+          <t>Gojek</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1561,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1570,7 +1680,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>36 - 45 tahun</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1690,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1590,20 +1700,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ovo</t>
+          <t>GoPay</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Grab</t>
+          <t>Gojek</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1612,49 +1727,54 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>&gt;Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ovo</t>
+          <t>GoPay</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Grab</t>
+          <t>Gojek</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1663,49 +1783,390 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>78</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Wanita</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>36 - 45 tahun</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pegawai Swasta</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>&gt;Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>&gt;Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ovo</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Grab</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>79</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pria</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18 - 25 tahun</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pelajar/Mahasiswa</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rp0 - Rp2.500.000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Rp0 - Rp2.500.000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>GoPay</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Gojek</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>81</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Wanita</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18 - 25 tahun</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pelajar/Mahasiswa</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rp0 - Rp2.500.000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rp0 - Rp2.500.000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ShopeePay</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Gojek</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wanita</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26 - 35 tahun</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pegawai Swasta</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>&gt;Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rp10.000.000 - Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>GoPay</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Grab</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>92</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pria</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26 - 35 tahun</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pegawai Swasta</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>&gt;Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rp10.000.000 - Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ovo</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Grab</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>93</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Wanita</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26 - 35 tahun</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pegawai Swasta</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>&gt;Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>&gt;Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ovo</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Grab</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>94</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Pria</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>36 - 45 tahun</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Pegawai Swasta</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>&gt;Rp20.000.000</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>&gt;Rp20.000.000</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Ovo</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Grab</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L31" t="n">
         <v>2</v>
       </c>
     </row>
